--- a/xlsxtojson/xlsx/conditions.xlsx
+++ b/xlsxtojson/xlsx/conditions.xlsx
@@ -4,31 +4,92 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="11790"/>
+    <workbookView windowWidth="17475" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="conditions" sheetId="1" r:id="rId1"/>
+    <sheet name="missions" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>type</t>
+  </si>
+  <si>
     <t>condtion1</t>
   </si>
   <si>
+    <t>condtion2</t>
+  </si>
+  <si>
+    <t>condtion3</t>
+  </si>
+  <si>
+    <t>amount_type</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>operator</t>
+  </si>
+  <si>
     <t>uint32</t>
   </si>
   <si>
     <t>repeated</t>
   </si>
   <si>
-    <t>[1,2,34]</t>
+    <t>1杀怪2对话npc3完成相应条件4使用类型物品5条件池6升级</t>
+  </si>
+  <si>
+    <t>0:累计 (如累计充值人民币1万元) 1:拥有 (如拥有一万砖石)</t>
+  </si>
+  <si>
+    <t>0: == 1:&lt; 2: &lt;= 3: &gt; 3&gt;=</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4]</t>
+  </si>
+  <si>
+    <t>[5,6,7,8]</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5,6,7,8]</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>condition_id</t>
+  </si>
+  <si>
+    <t>[1,6,3,8]</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -37,9 +98,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -50,6 +111,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -57,45 +141,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,50 +201,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -166,12 +219,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -179,6 +233,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,7 +249,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,19 +264,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -227,163 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,6 +455,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -408,6 +484,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -427,6 +512,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -437,39 +531,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -502,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -514,73 +575,73 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -589,58 +650,58 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -968,36 +1029,527 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:B4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/xlsxtojson/xlsx/conditions.xlsx
+++ b/xlsxtojson/xlsx/conditions.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17475" windowHeight="11790"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="conditions" sheetId="1" r:id="rId1"/>
-    <sheet name="missions" sheetId="2" r:id="rId2"/>
+    <sheet name="condition" sheetId="1" r:id="rId1"/>
+    <sheet name="mission" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -97,9 +97,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -111,60 +111,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,76 +219,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -264,13 +264,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -282,67 +414,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,19 +432,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,73 +444,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,21 +455,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,6 +469,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,16 +521,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -563,10 +563,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -575,16 +575,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -593,13 +593,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,94 +614,94 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1031,7 +1031,7 @@
   <sheetPr/>
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -1506,8 +1506,8 @@
   <sheetPr/>
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
